--- a/Nề nếp.xlsx
+++ b/Nề nếp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODEGYM\CAC LOP\C0323H1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544391B0-AB91-42FF-A573-A52EF79891F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D30478-B675-40B3-9B25-317E7CB43818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Minh</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>nghỉ có phép</t>
+  </si>
+  <si>
+    <t>28/06/23</t>
   </si>
 </sst>
 </file>
@@ -379,32 +382,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -412,30 +419,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
